--- a/EyeVesselDetection/ClassificationMetrics.xlsx
+++ b/EyeVesselDetection/ClassificationMetrics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apasi\OneDrive\Desktop\IT_in_Medicine\EyeVesselDetection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apasi\OneDrive\Dokumenty\GitHub\IT_in_Medicine\EyeVesselDetection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Predykcja</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>test set</t>
+  </si>
+  <si>
+    <t>training set</t>
   </si>
 </sst>
 </file>
@@ -235,18 +238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,6 +251,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U8"/>
+  <dimension ref="B1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +554,7 @@
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
@@ -564,43 +568,43 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
-        <v>30421696</v>
-      </c>
-      <c r="E4" s="9">
-        <v>137564</v>
+      <c r="D4" s="8">
+        <v>2297</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1099</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>2319680</v>
-      </c>
-      <c r="E5" s="8">
-        <v>505034</v>
+        <v>559</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2847</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
@@ -644,23 +648,23 @@
       </c>
       <c r="H7" s="1">
         <f>(D4+E5)/(D4+E4+D5+E5)</f>
-        <v>0.92639450294323855</v>
+        <v>0.75624816230520431</v>
       </c>
       <c r="I7" s="1">
         <f>E5/(E5+E4)</f>
-        <v>0.78592525964911186</v>
+        <v>0.72149011657374551</v>
       </c>
       <c r="J7" s="1">
         <f>E5/(E5+D5)</f>
-        <v>0.17879119797614909</v>
+        <v>0.83587786259541985</v>
       </c>
       <c r="K7" s="1">
         <f>D4/(D4+E4)</f>
-        <v>0.99549845120595193</v>
+        <v>0.67638398115429921</v>
       </c>
       <c r="L7" s="1">
         <f>2*(I7*J7)/(I7+J7)</f>
-        <v>0.2913115404670823</v>
+        <v>0.77448313384113165</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>13</v>
@@ -705,6 +709,63 @@
       </c>
       <c r="U8" s="3">
         <v>0.97005632967684563</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.75847239579504522</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.73285174630525551</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.8132078246801</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.70377718988830096</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.770941541464775</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.75624816230520431</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.72149011657374551</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.83587786259541985</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.67638398115429921</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.77448313384113165</v>
       </c>
     </row>
   </sheetData>
